--- a/output/StructureDefinition-event-location.xlsx
+++ b/output/StructureDefinition-event-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T16:24:56-07:00</t>
+    <t>2021-09-15T21:08:33-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-event-location.xlsx
+++ b/output/StructureDefinition-event-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T21:08:33-07:00</t>
+    <t>2021-09-16T08:49:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-event-location.xlsx
+++ b/output/StructureDefinition-event-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T08:49:25-07:00</t>
+    <t>2021-09-29T17:17:11-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-event-location.xlsx
+++ b/output/StructureDefinition-event-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T17:17:11-07:00</t>
+    <t>2021-09-30T07:46:12-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
